--- a/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute.    We will then hear from our witnesses and without objection, witnesses, your prepared statements will be made a part of the record and members may have 5 days in which to insert statements and questions for the record subject to the length limitations in the rules.    Before we begin today, I would just like to say, and I'm sure that I'm speaking on behalf of all of the members, that we condemn in the strongest terms the terrorist attacks in Brussels today and our condolences are with those impacted by this evil and with all of the people of Brussels.    We stand ready, willing and able to assist our European allies with whatever they need to root out these terrorists and hold those responsible accountable.    I think today's attacks and the subject matter of today's hearing only serve to further underscore the need for all of us--the U.S., our allies, all--to do more to combat and destroy ISIS and other terrorist groups like Hezbollah and it has to start with finding a comprehensive plan for Syria that includes defeating all the terror groups and seeing Assad removed from power.    We certainly have trying times ahead but I'm confident that these terrorists will not change our way of life and that freedom and democracy will ultimately triumph over this radical extremism and hatred.    The chair now recognizes herself for 5 minutes. Iran, Syria, Lebanon, Israel--the proxy war between Saudi Arabia and the Arab states and Iran--these are all some of the top priorities for U.S. national security interests in the Middle East.    And one of the common denominators here, one thing at the center of all of this, is the U.S.-designated Foreign Terrorist Organization--FTO--Hezbollah.    This Shi'ite Islamist group is an Iran proxy group that is known to be one of the world's most dangerous and capable terror organizations trained and equipped and funded by Iran's Quds Force.    Hezbollah has been responsible for some of the world's most infamous terror attacks including the 1983 U.S. Marine barracks bombing in Beirut, the 1994 AMIA Jewish community center in Buenos Aires and the bombing of a bus in Bulgaria which targeted Israeli citizens.    But this is just a small fraction of the terror activities as Hezbollah is present around the world including an alarming presence right here in our own hemisphere where it is involved in drug trafficking, smuggling networks and terror operations.    This U.S.-designated FTO has been responsible for provoking war with Israel most recently in the 34-day conflict in 2006 which saw the militant group launch over 4,000 rockets indiscriminately into northern Israel.    Hezbollah is responsible for destabilizing Lebanon's political scene and is growing its influence and presence there, much to the detriment of Lebanon and her people.    Hezbollah was found to be responsible for the assassination of the former prime minister in 2005 and, of course, Hezbollah has been used by the Iranian regime as ground forces to protect the regime's interest in Syria.    With all of this it is clear that Hezbollah represents a growing threat to our national security interests, especially in the wake of the sanctions relief that the Iranian Government has received as part of this weak and dangerous nuclear agreement.    Hezbollah receives financial and materiel support from Iran and now with the regime receiving this financial windfall of over $100 billion, it is not only reasonable to expect that Iran will increase its support for its proxy, it is as near of a guarantee as one can have.    With the terror group being such a vital arm of Iran's foreign policy agenda we would be silly and ignorant to expect that it wouldn't use this as an opportunity to strengthen this vital extension of its damaging apparatus.    This is likely one of the major driving forces behind the Gulf countries and the Arab League making the decision to designate Hezbollah as a terrorist organization.    This designation, regardless of the motivations, was a step in the right direction and we'd like to see more of that from our GCC partners in fighting terror groups like Hezbollah and that includes doing more to combat terror financing in those countries.    But it is encouraging and we should seek to work with them in an effort to cut off Hezbollah's support from Iran and eliminate the threat that it poses.    Saudi Arabia has cut its military assistance to Lebanon in part because of Hezbollah's undue influence in Beirut and the Lebanese Government. That undue influence led the Lebanese justice minister to resign.    This should be sounding alarm bells for the administration. Not only is it allowing Iran and Hezbollah to push us around in Syria but it is allowing Iran to grow its influence in Lebanon and extend its grasp in the region.    Now we have Hezbollah on the border with Israel in Lebanon and we have Hezbollah in the Golan Heights, and just because it is preoccupied with the fight in Syria doesn't mean it has turned a blind eye on Israel.    Make no mistake about it. The cease fire between Israel and Hezbollah has nothing to do with Hezbollah not wanting to fight Israel. It has everything to do with the terror group restocking and building up its missile and rocket stockpile so that it can once again launch an all-out attack against the Jewish state.    In fact, with all the chaos going on in Syria right now, it has helped Iran and the Assad regime in their efforts to smuggle more weapons and more ammunition and more sophisticated weapons systems to the terror group and that includes some advanced Russian-made weapons systems, which could seriously jeopardize Israel's security.    Anytime we have Russia, Iran and Hezbollah operating in the same theater with the same objectives, it cannot be good for the security and the stability of the region.    It is an imminent threat to our friend and ally, the democratic Jewish state of Israel, and it is a great threat to our national security interests in the region as the proxy war between Iran and some of our GCC allies threatens to escalate.    The Obama administration needs to do more to counter Hezbollah and Iran in Syria, which means delivering a comprehensive strategy to defeat ISIS and the Assad-Hezbollah-Iran nexus.    It needs to do more to take action to combat the weapons transfers from Russia to Iran and to Hezbollah in Syria. The President needs to use the tools at his disposal to sanction Hezbollah and cut off its network, and the President needs to realize that foregoing old alliances in the region to legitimize relations with and legitimize itself, the Iranian regime, is a strategic calamity that will have terrible consequences for the region and for our national security interests for years to come.    With that, I'm pleased to recognize the ranking member, my friend, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you very much, Madame Chairman.    I'd also like to just take a moment to say that we stand with the people of Brussels, the people of Belgium and all those who are resolute in battling ISIS and the terrorist groups that cowardly launch attacks on innocent civilians.    It will not win, not in Belgium, not in Turkey, not in Cote d'Ivoire, not in Israel, nowhere, and our thoughts and prayers go out to the victims--today's victims and to their families.    Thank you to our witnesses. It's a pleasure to welcome you all back to our subcommittee and I thank the chairman for convening today's hearing to examining the terrorist organization Hezbollah whose dangerous behavior poses a threat in nearly every corner of the globe.    Hezbollah was founded as a resistance group against Israel, a group dedicated to the destruction of the state of Israel.    Today, its activities are broad and they are wide. Hezbollah has become Iran's proxy terrorist using Iranian dollars to launch attacks around the world just as they use Iranian weapons to kill Syrians.    Hezbollah is responsible for the 1992 Israeli Embassy bombing in Argentina which killed 29 people, the 1994 bombing of the AMIA Jewish center that killed 85 people. It attacked a bus of tourists in Bulgaria in 2012.    Since 2008, attacks plotted by Hezbollah have been foiled in Cyprus, in Azerbaijan, in Georgia and in Turkey. And in 2012 a Hezbollah plot to assassinate the Ambassador of Saudi Arabia right here in Washington was uncovered.    This attack, had it gone forward, would have resulted in the deaths of innocent civilians here in our nation's capital. And while Hezbollah has been a designated U.S. Foreign Terrorist Organization since 1997, it still operates freely around the world as a so-called political group--a political group.    The distinction between Hezbollah's political and military wings allows the group to fundraise throughout Europe and Latin America.    The Hezbollah International Financing Prevention Act, which I was proud to introduce with Chairman Royce, Ranking Member Engel and my friend, Mr. Meadows, has been signed into law and would help crack down on Hezbollah's use of the banking system as well as its other funding sources from narco-trafficking to money laundering.    Now, today's hearing comes on the heels of two surprising announcements--the designation of Hezbollah as a terrorist organization by the Gulf Cooperation Council followed by the same designation by the Arab League.    These actions are a clear indication of just how dangerous Hezbollah has become as it does Iran's dirty work throughout the Middle East.    Iran has a long history of meddling in neighboring countries with hopes of destabilizing governments and inciting unrest among Shi'ite populations.    After the conclusion of the nuclear agreement, there is increasing concern about the kind of damage an Iran with access to billions of dollars in sanctions relief could do.    But Hezbollah is not just a threat to Israel and to Arab states. This murderous group has a history of attacking American citizens and American interests.    Since its inception in 1982, Hezbollah has attacked American citizens in the bombing of the U.S. Embassy in Beirut in 1983, killing 63 including 17 Americans, the U.S. Marine barracks bombing in October 1983 which killed 241 American and 58 French servicemen, the bombing of the U.S. Embassy annex in Beirut in 1984 which killed 24, the hijacking of TWA 847 in 1985 in which a Navy diver was shot in the head and his body dumped on the Tarmac, and the Khobar Towers attack in Saudi Arabia in 1996 that killed 19 U.S. airmen.    Desperate to hang on to its best friend, Bashar al-Assad, Iran dispatched Hezbollah mercenaries to Syria nearly 5 years ago. Hezbollah has sustained the regime's grip on power and aided in the slaughter of hundreds of thousands of innocent Syrians by providing Assad with somewhere between 6,000 and 8,000 fighters.    Just this week, Hezbollah leader Hassan Nasrallah vowed that his fighters would press on in Syria even as Assad loses his support from the Russian air force.    The conflict in Syria has delivered an influx of new weapons into the region, increasing the chances that dangerous chemical or advanced precision weapons had fallen into Hezbollah's hands.    Already Hezbollah is reportedly in possession of Russian-designed surface-to-air shoulder-mounted missile systems and with an arsenal of well over 100,000 missiles, which are, according to Nasrallah, capable of reaching every corner of Israel, it is troubling to imagine these rockets with precision capabilities or Hezbollah with a stockpile of chemical weapons that could one day be used against Israel.    The U.S. must lead the efforts to interdict Iranian weapons as they make their way to Hezbollah for use in Syria and against Israel. We have tremendous cooperation with Israel in these efforts but the international community under the mandate of U.N. Security Council Resolution 1701, which calls for the de-arming of Hezbollah, must step up these efforts.    The Security Council must do more to ensure that Security Council resolutions are implemented. The U.N. peacekeeping mission in Lebanon does not have the ability to de-arm Hezbollah. There is no enforcement mechanism.    Hezbollah has a stranglehold on Lebanon, the country is paralyzed because Hezbollah essentially functions as a state within a state. The political stalemate has persisted for nearly 2 years with the government unable to select a President.    Moreover, the Lebanese Armed Forces must be the sole security apparatus in the country. I was pleased to see the Security Council reaffirm this last week reiterating their strong support for the territorial integrity, sovereignty and political independence of Lebanon and underscoring the crucial role played by the Lebanese Armed Forces and security forces in extending and sustaining the authority of the state in supporting the country's stability.    As long as Hezbollah remains in Syria, a threat to Lebanon remains. Retaliatory bombings have struck Beirut, the country is buckling under the weight of over 1 million refugees and Hezbollah is desperate to see its lifeline to Iran preserved.    This makes a political solution that removes Bashar al-Assad from power all the more important for regional international security. Without Assad, the Hezbollah-Iran nexus is inherently weakened.    Madam Chairman, it is time for the world to call Hezbollah what it is--a terrorist organization that murders innocent civilians at the behest of Iran.    I hope today will give us new insight into how we can beat Iranian support for Hezbollah and curb the menacing group's activities in the Middle East and around the world, and I yield back.    Thank you.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Levitt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Levitt. Thank you very much, Chairman Ros-Lehtinen and Ranking Member Deutch, members of the committee.    It's a pleasure to be here. I, too, would like to just make a comment about Brussels. I was in Brussels last week meeting with counterterrorism officials including with officials as they were planning the first raid last Tuesday.    But I also had the opportunity while there to talk to them about Hezbollah and there is some silver lining here, because due to Hezbollah's tremendous investment in international organized crime, going up to the highest levels of Hezbollah, we now have an opportunity to work with Europeans, even within the context of a European Union designation of Hezbollah that is partial, just the military and terrorist wings, as if such a distinction exists.    Hezbollah will be the first to tell you it does not, and so maybe this is something we should push on again.    But even where things are, we are seeing tremendous cooperation with them on these cases. The fact is that Hezbollah has branched out and experienced a regional transformation.    We see the designation by the GCC and Arab League and it's because of an increased amount of Hezbollah activity in the region, not just the long history of Hezbollah in the Gulf, and to be clear, for example, just 2 months after the finalization day of JCPOA we had the arrest of Mughassil who was one of the masterminds of the Khobar Towers bombing that you both mentioned.    Hezbollah's transformation has, clearly, taken it to Syria. It has taken it to Iraq in small numbers. But, for example, the Treasury Department designated al-Inmaa Group, a Beirut-based engineering company which has been opening up basically fronts to finance and support Hezbollah activities, a small footprint in Yemen, which is most noticeable for the very high ranking Hezbollah operatives that they have sent there.    When Hezbollah sends a special operations commander like Abu Ali Tabatabai to Yemen, that means that Yemen means something to them, even if they're not sending large numbers of people.    Hezbollah's global criminal networks are on the increase and it's important to note that they rely sometimes on what we call these criminal super facilitators who can move and launder tremendous amounts of money in and out of Europe, in and out of the United States.    It's important to note that the Department of Justice, the U.S. Drug Enforcement Administration, has been targeting a whole host of these actors.    To be clear, we don't actually know what this unit within Hezbollah calls itself. But U.S. law enforcement, for lack of a better term, came up with a name called the Business Affairs Component--the BAC--which to be clear is not operating on behalf of Hezbollah's political wing, for its social welfare wing, but it is specifically under and providing facilitation and finance for the terrorist wing, the Islamic Jihad organization, the external security organization, and was founded, according to the GOA, by Imad Mughniyah himself before he was killed in 2008. That's how far back this organization goes.    In terms of the Western Hemisphere, the BAC has established working relationships according to DOJ with South American drug cartels that supply cocaine to drug markets in both the U.S. and Europe.    The BAC then launders these drugs through well-known black market peso exchange and other vehicles. This has come close to the United States as well. One of the most important arrests we've made was of an individual who we lured to Atlanta, Imam Kubaisi, in October 2015, just 3 weeks after the end of the 60-day congressional review period for JCPOA. She was arrested in Atlanta.    She was arraigned on money laundering conspiracy charges, unlicensed firearms dealing, conspiracy for laundering funds she believed to be drug money and for arranging for the sale of thousands of firearms including military assault rifles, machine guns and sniper rifles to criminal groups in Iran and Lebanon, including Hezbollah. She also was trying to procure airplane parts for Iran.    And meanwhile, as associate of hers, Joseph Asmar, was arrested in Paris--again, underscoring the tremendous law enforcement cooperation we're seeing with key European allies.    According to the Department of Justice, Kubaisi and Asmar explained that they could arrange for places from South America--planes, that is, from South America laden with multi-ton shipments of cocaine to land safely in Africa as a transit point before the drugs were smuggled to the United States and to Europe.    DEA recording of the conversation of these two individuals with a DEA undercover discussing their money laundering network and the services they provided to drug traffickers, terrorist organizations and other criminal groups including places--in places like Lebanon, Iran, France, Belgium, again, Bulgaria, Benin, the DRC, Ghana, Nigeria, Cyprus and, yes, across the United States.    We see Hezbollah not only engaging in facilitation but also operational activity, the latest plot to be thwarted in Cyprus with Hussein Bassam Abdallah, a dual Lebanese-Canadian citizen involved in the stockpiling of over eight tons of ammonia nitrate, and according to intelligence officials that was intended not just for Cyprus but for further operations in Europe.    The fact is that there are activities here in the Western Hemisphere we need to be extremely cognizant of. The most recent plot to be thwarted was in Peru. The individual who was arrested, Mohamad Amadar, had married a dual Peruvian-American citizen who was a resident in Miami.    But perhaps the most--the thing we need to be most concerned about and which perhaps you haven't heard is that the person who was the handler for Mohamad Amadar, who met with him personally in Turkey, was Salman Al-Redda.    Salman Al-Redda has been indicted for his role in the 1994 bombing of the AMIA attacks. He came and went throughout South America in the years followed, never arrested, and he has become one of the absolute top--perhaps the top three or four Islamic jihad organization Hezbollah terrorist wing operatives personally in charge of operations in South America, and those operations continue.    My time is over, but I'd like--if you're interested I'm happy to tell you about some of the other things that Treasury, the State Department and the Department of Justice are doing.    There's good things happening from the United States regarding Hezbollah. But my time is over. I want to thank you for having me once more.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. We'll make sure that we ask you that. Thank you.    Mr. Badran.</t>
   </si>
   <si>
-    <t>Badran</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Badran. Thank you, Madam Chair, and thank you, Ranking Member Deutch and for the members of the committee for allowing me to testify today.    I'm going to just briefly talk about, as Matt has talked about, Hezbollah's global operations. I want to talk specifically more about how that relates to their position in Lebanon and Syria specifically.    On the one hand, the Syrian uprising 5 years ago posed a significant challenge to Iran and Hezbollah by--as you noted, by threatening to sever their bridge to Lebanon and thereby denying Hezbollah their strategic depth as well as their logistical pipeline.    Unfortunately, 5 years on the trend is moving in the opposite direction. Hezbollah and Iran have secured their core interests in Syria, albeit at significant cost.    They have managed to secure contiguity between Lebanon and the regime-controlled areas in western Syria, thereby securing the ability to continue to move weapons from Damascus to Lebanon.    A key partner in this effort has been the Lebanese Armed Forces. In fact, one of the interesting things to note and troubling things to note over the past 5 years has been the growing partnership between Hezbollah and the LAF, which has allowed Hezbollah to protect its domestic flank when it was facing some backlash for its involvement in Syria.    The partnership between Hezbollah and the LAF, however, is not the only point of Hezbollah control and domination of the Lebanese state.    It has placed its members or sympathizers in key government positions which like, for instance, the Lebanese customs office as well as its financial auditor which allows it all this activity that we're hearing about globally to be processed domestically with little oversight or backlash.    In fact, Lebanon has become a critical hub in Hezbollah's criminal activities. Hezbollah has made Lebanon complicit both financially and economically as well as militarily because of all the weapons that it's moving from Syria that it's getting from Iran and is storing the majority of it in civilian areas.    Hezbollah has essentially painted a big target on the back of all of Lebanon and this is, unfortunately, has not been countered by U.S. policy over the last 5 years.    What this threatens to do is to--in addition to all these strategic weapons that are being moved to Lebanon as well as the Hezbollah's entrenchment in Syria and its expansion into the Golan along with the IRGC and the building of new infrastructure on Syrian soil, it creates a situation for Israel that will, I think, accelerate an upcoming future conflict which, as the IDF has been saying to anybody who will listen for the last few years, is going to be far bloodier than anything that we've ever seen on both sides.    You talked about the 4,000 rockets that they launched in the previous war. Now they have the capacity to launch anywhere between 1,000 to 1,500 a day.    So the IDF is very clear that there's going to be a lot of dead civilians both in Israel but also in Lebanon. The problem also has been that Hezbollah has gained operational expertise in Syria, working alongside the Russian military in combined weapons operations and in different urban and rural settings. So it's actually be able to offset its losses with this experience.    All of this creates a situation on the border of Israel in the northern border that now combines the Syrian front as well as the Lebanese front and soon to be not just swimming in Iranian cash but also potentially soon with an Iranian nuclear umbrella. This creates an unacceptable position for Israel.    But it's not only Israel's security that has been challenged by this development. It's also the Arab states and we've seen the Saudis leading the charge in this regard in designating Hezbollah but also in pulling the $3 billion aid that they gave to the Lebanese Armed Forces, citing the fact that the Lebanese Armed Forces have become an ``auxiliary'' of Hezbollah and I think this is an accurate assessment.    And although the--there's a tendency on the part of the administration at least to kind of pressure the Saudis to go back on that decision, I think actually we should stop and take and pause and reassess what exactly U.S. materiel support to the LAF and intelligence sharing--how that can actually go to sustain and help Hezbollah entrench its grip on Lebanon.    In addition, we should not--because of--the nature of Hezbollah's control over Lebanon--think about it in the way that the IRGC is in Iran. It's tentacles are everywhere in the economy and security apparatus.    So when pushing for the implementation of H.R. 2297, I think we should be very, very clear about not being taken hostage by the prospect that this is going to somehow collapse Lebanon's economy or the assistance to the LAF is going to collapse Lebanon's security, we have to also be cognizant of the fact that any nook and cranny and any safe haven that's provided in the Lebanese system ultimately is going to benefit Hezbollah because of its dominant position in the state, both in the security sector as well as in the economic sector.    So I'll stop right here and I'll be happy to flesh this out in the conversation.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, sir.    Dr. Byman.</t>
   </si>
   <si>
-    <t>Byman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byman. Madam Chairman, Ranking Member Deutch, members of the committee, thank you very much for having me here today.    Hezbollah is in a time of transition and this is in large part because of the Syrian civil war. Hezbollah forces have been involved in several of the most important battles in the war and they have proven a vital ally to the Syrian regime due to their skill and their discipline, which are often much greater than those of the Syrian army forces.    Hezbollah has had to expand the overall size of its military wing, and although it was cautious about entering the fray, many Lebanese Shi'a now see it as a defender of their community.    They look at the atrocities that the Islamic State is perpetrating against their co-religionists and believe that a strong Hezbollah is necessary to protect their community.    We see extreme voices within the Lebanese Sunni community including jihadists tied to the Islamic State or al-Nusra, al-Qaeda's affiliate. They see Hezbollah as the leading or top foe they face and they've conducted terrorist attacks on Hezbollah targets in Lebanon and Iranian targets there as well.    Perhaps the biggest negative consequence for Hezbollah though has been the collapse of its regional reputation and the associated prestige it's had in the Arab world.    Almost 10 years ago in 2006, Hassan Nasrallah was one of the most popular men in the Arab world for Hezbollah's military efforts against Israel.    Today, he's widely hated. Hezbollah's involvement in the Syrian civil war has largely made it more cautious about taking on Israel. It's taken close to 1,000 causalities and that's a huge number for a relative small group, and this is putting a strain on the organization.    In addition, the organization's Lebanese constituents have little appetite for yet another confrontation, yet another draining conflict.    This could change, though, for several reasons. One is that if there are setbacks in Lebanon or elsewhere the group would have an incentive to restore its past reputation, and fighting Israel might be one way to do so.    Also, Israel regularly attacks Hezbollah targets in Syria and Lebanon to stop the transfer of advanced weapons, as Tony mentioned, and these strikes have at times killed senior Hezbollah officials and even a senior Iranian official.    This has the potential to escalate though, fortunately, we haven't seen that happen yet. And finally, Hezbollah is loyal to Iran and if there were a collapse in the U.S.-Iran nuclear deal or another source of tension, Hezbollah would be seen as part of the Iranian response.    In my judgement, the close relationship between Hezbollah and Iran is not likely to change with the U.S.-Iran nuclear deal. It is possible that Iran might step up support to Hezbollah, taking advantage of the sanctions relief. But at the same time we must recognize that Iran is diplomatically over stretched.    It's deploying considerable forces in Syria to prop up the Assad regime. It maintains a large and clandestine force in Iraq and it's even established limited ties to the Houthis in Yemen. These are considerable financial commitments.    You couple that at home with the collapse in oil prices and add to that decades of economic mismanagement and this has all come at the same time when ordinary Iranians are expecting an increase in economic prosperity due to the deal.    So those sanctions relief will put more money into Iran's coffers. Iran has many, many demands on these scarce funds and in my judgement the level of support for Hezbollah is not likely to change significantly barring a significant change in the regional situation.    For the United States we face a dilemma. Washington, of course, doesn't want Hezbollah's influence to grow. But at the same time, Hezbollah is one of the most formidable foes of the Islamic State and it is fighting the group effectively in Syria.    A standard recommendation is to build up the Lebanese Armed Forces and to otherwise strengthen the Lebanese state to help it counter Hezbollah and I've argued that for quite some time.    For the most part, though, I think we need to recognize that U.S. efforts to do this have failed. In part, this is linked to some general problems with U.S. training programs. But the bigger problem is that Lebanese leaders don't want to exacerbate tension with Hezbollah right now and as a result they're hesitant to go for any efforts to try to push them in that direction.    Part of this is due to fear but Lebanon's situation right now is quite precarious and the country is, I would say, on edge because of the neighboring unrest in Syria.    The million plus Syrian refugees in Lebanon are a potential destabilizing force and I think U.S. aid for the refugees in Lebanon is vital.    We really don't need another failed state in the Middle East and Lebanon, unfortunately, is a fairly strong candidate to be the next one should things get worse.    And finally, as the United States steps up its intervention in Syria and Iraq, continues its efforts to fight Hezbollah, coordination with Israel is going to be essential.    The two countries work well together on this and we need to redouble cooperation to make the most of everything.    Thank you very much.</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
   </si>
   <si>
     <t>412652</t>
-  </si>
-  <si>
-    <t>Brendan F. Boyle</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Boyle. Thank you. I just have a few questions. When I was in Israel last August--well, actually, a few years ago and then again last August, folks I talked to including Israeli generals talked--they said not if there's a third Lebanon war but when there's a third Lebanon war, and that really struck me.    So my question was about the rockets because there's been quite a change even since I was there 7 months ago. The Israeli military that was briefing us had used the figure about 85,000 rockets. Then it was revised upwards after that to 100,000 and now I read upwards of 150,000.    So I guess two questions. First, where exactly do things stand now in terms of the amount of rockets and their sophistication. As I recall from 2006, the rockets that they had were not exactly precise.    So that's the number one, and then number two is what is our best intelligence that would be the event to trigger a third Lebanon war?    So I decided to ask all my questions at once and then leave it to each of you to figure it out which ones you'll want to take.</t>
@@ -604,11 +586,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -628,13 +608,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -656,11 +634,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -680,13 +656,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -708,11 +682,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -732,13 +704,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -760,11 +730,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -784,13 +752,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -812,11 +778,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -836,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -862,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -890,11 +850,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -914,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -942,11 +898,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -966,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -992,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1018,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1046,11 +994,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1070,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1096,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1122,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1148,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1174,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1200,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1226,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1252,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1278,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1304,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1330,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1356,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1382,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1408,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1434,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1462,11 +1378,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1486,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1512,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1538,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1564,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1592,11 +1498,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1616,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1644,11 +1546,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1668,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1696,11 +1594,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute.    We will then hear from our witnesses and without objection, witnesses, your prepared statements will be made a part of the record and members may have 5 days in which to insert statements and questions for the record subject to the length limitations in the rules.    Before we begin today, I would just like to say, and I'm sure that I'm speaking on behalf of all of the members, that we condemn in the strongest terms the terrorist attacks in Brussels today and our condolences are with those impacted by this evil and with all of the people of Brussels.    We stand ready, willing and able to assist our European allies with whatever they need to root out these terrorists and hold those responsible accountable.    I think today's attacks and the subject matter of today's hearing only serve to further underscore the need for all of us--the U.S., our allies, all--to do more to combat and destroy ISIS and other terrorist groups like Hezbollah and it has to start with finding a comprehensive plan for Syria that includes defeating all the terror groups and seeing Assad removed from power.    We certainly have trying times ahead but I'm confident that these terrorists will not change our way of life and that freedom and democracy will ultimately triumph over this radical extremism and hatred.    The chair now recognizes herself for 5 minutes. Iran, Syria, Lebanon, Israel--the proxy war between Saudi Arabia and the Arab states and Iran--these are all some of the top priorities for U.S. national security interests in the Middle East.    And one of the common denominators here, one thing at the center of all of this, is the U.S.-designated Foreign Terrorist Organization--FTO--Hezbollah.    This Shi'ite Islamist group is an Iran proxy group that is known to be one of the world's most dangerous and capable terror organizations trained and equipped and funded by Iran's Quds Force.    Hezbollah has been responsible for some of the world's most infamous terror attacks including the 1983 U.S. Marine barracks bombing in Beirut, the 1994 AMIA Jewish community center in Buenos Aires and the bombing of a bus in Bulgaria which targeted Israeli citizens.    But this is just a small fraction of the terror activities as Hezbollah is present around the world including an alarming presence right here in our own hemisphere where it is involved in drug trafficking, smuggling networks and terror operations.    This U.S.-designated FTO has been responsible for provoking war with Israel most recently in the 34-day conflict in 2006 which saw the militant group launch over 4,000 rockets indiscriminately into northern Israel.    Hezbollah is responsible for destabilizing Lebanon's political scene and is growing its influence and presence there, much to the detriment of Lebanon and her people.    Hezbollah was found to be responsible for the assassination of the former prime minister in 2005 and, of course, Hezbollah has been used by the Iranian regime as ground forces to protect the regime's interest in Syria.    With all of this it is clear that Hezbollah represents a growing threat to our national security interests, especially in the wake of the sanctions relief that the Iranian Government has received as part of this weak and dangerous nuclear agreement.    Hezbollah receives financial and materiel support from Iran and now with the regime receiving this financial windfall of over $100 billion, it is not only reasonable to expect that Iran will increase its support for its proxy, it is as near of a guarantee as one can have.    With the terror group being such a vital arm of Iran's foreign policy agenda we would be silly and ignorant to expect that it wouldn't use this as an opportunity to strengthen this vital extension of its damaging apparatus.    This is likely one of the major driving forces behind the Gulf countries and the Arab League making the decision to designate Hezbollah as a terrorist organization.    This designation, regardless of the motivations, was a step in the right direction and we'd like to see more of that from our GCC partners in fighting terror groups like Hezbollah and that includes doing more to combat terror financing in those countries.    But it is encouraging and we should seek to work with them in an effort to cut off Hezbollah's support from Iran and eliminate the threat that it poses.    Saudi Arabia has cut its military assistance to Lebanon in part because of Hezbollah's undue influence in Beirut and the Lebanese Government. That undue influence led the Lebanese justice minister to resign.    This should be sounding alarm bells for the administration. Not only is it allowing Iran and Hezbollah to push us around in Syria but it is allowing Iran to grow its influence in Lebanon and extend its grasp in the region.    Now we have Hezbollah on the border with Israel in Lebanon and we have Hezbollah in the Golan Heights, and just because it is preoccupied with the fight in Syria doesn't mean it has turned a blind eye on Israel.    Make no mistake about it. The cease fire between Israel and Hezbollah has nothing to do with Hezbollah not wanting to fight Israel. It has everything to do with the terror group restocking and building up its missile and rocket stockpile so that it can once again launch an all-out attack against the Jewish state.    In fact, with all the chaos going on in Syria right now, it has helped Iran and the Assad regime in their efforts to smuggle more weapons and more ammunition and more sophisticated weapons systems to the terror group and that includes some advanced Russian-made weapons systems, which could seriously jeopardize Israel's security.    Anytime we have Russia, Iran and Hezbollah operating in the same theater with the same objectives, it cannot be good for the security and the stability of the region.    It is an imminent threat to our friend and ally, the democratic Jewish state of Israel, and it is a great threat to our national security interests in the region as the proxy war between Iran and some of our GCC allies threatens to escalate.    The Obama administration needs to do more to counter Hezbollah and Iran in Syria, which means delivering a comprehensive strategy to defeat ISIS and the Assad-Hezbollah-Iran nexus.    It needs to do more to take action to combat the weapons transfers from Russia to Iran and to Hezbollah in Syria. The President needs to use the tools at his disposal to sanction Hezbollah and cut off its network, and the President needs to realize that foregoing old alliances in the region to legitimize relations with and legitimize itself, the Iranian regime, is a strategic calamity that will have terrible consequences for the region and for our national security interests for years to come.    With that, I'm pleased to recognize the ranking member, my friend, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you very much, Madame Chairman.    I'd also like to just take a moment to say that we stand with the people of Brussels, the people of Belgium and all those who are resolute in battling ISIS and the terrorist groups that cowardly launch attacks on innocent civilians.    It will not win, not in Belgium, not in Turkey, not in Cote d'Ivoire, not in Israel, nowhere, and our thoughts and prayers go out to the victims--today's victims and to their families.    Thank you to our witnesses. It's a pleasure to welcome you all back to our subcommittee and I thank the chairman for convening today's hearing to examining the terrorist organization Hezbollah whose dangerous behavior poses a threat in nearly every corner of the globe.    Hezbollah was founded as a resistance group against Israel, a group dedicated to the destruction of the state of Israel.    Today, its activities are broad and they are wide. Hezbollah has become Iran's proxy terrorist using Iranian dollars to launch attacks around the world just as they use Iranian weapons to kill Syrians.    Hezbollah is responsible for the 1992 Israeli Embassy bombing in Argentina which killed 29 people, the 1994 bombing of the AMIA Jewish center that killed 85 people. It attacked a bus of tourists in Bulgaria in 2012.    Since 2008, attacks plotted by Hezbollah have been foiled in Cyprus, in Azerbaijan, in Georgia and in Turkey. And in 2012 a Hezbollah plot to assassinate the Ambassador of Saudi Arabia right here in Washington was uncovered.    This attack, had it gone forward, would have resulted in the deaths of innocent civilians here in our nation's capital. And while Hezbollah has been a designated U.S. Foreign Terrorist Organization since 1997, it still operates freely around the world as a so-called political group--a political group.    The distinction between Hezbollah's political and military wings allows the group to fundraise throughout Europe and Latin America.    The Hezbollah International Financing Prevention Act, which I was proud to introduce with Chairman Royce, Ranking Member Engel and my friend, Mr. Meadows, has been signed into law and would help crack down on Hezbollah's use of the banking system as well as its other funding sources from narco-trafficking to money laundering.    Now, today's hearing comes on the heels of two surprising announcements--the designation of Hezbollah as a terrorist organization by the Gulf Cooperation Council followed by the same designation by the Arab League.    These actions are a clear indication of just how dangerous Hezbollah has become as it does Iran's dirty work throughout the Middle East.    Iran has a long history of meddling in neighboring countries with hopes of destabilizing governments and inciting unrest among Shi'ite populations.    After the conclusion of the nuclear agreement, there is increasing concern about the kind of damage an Iran with access to billions of dollars in sanctions relief could do.    But Hezbollah is not just a threat to Israel and to Arab states. This murderous group has a history of attacking American citizens and American interests.    Since its inception in 1982, Hezbollah has attacked American citizens in the bombing of the U.S. Embassy in Beirut in 1983, killing 63 including 17 Americans, the U.S. Marine barracks bombing in October 1983 which killed 241 American and 58 French servicemen, the bombing of the U.S. Embassy annex in Beirut in 1984 which killed 24, the hijacking of TWA 847 in 1985 in which a Navy diver was shot in the head and his body dumped on the Tarmac, and the Khobar Towers attack in Saudi Arabia in 1996 that killed 19 U.S. airmen.    Desperate to hang on to its best friend, Bashar al-Assad, Iran dispatched Hezbollah mercenaries to Syria nearly 5 years ago. Hezbollah has sustained the regime's grip on power and aided in the slaughter of hundreds of thousands of innocent Syrians by providing Assad with somewhere between 6,000 and 8,000 fighters.    Just this week, Hezbollah leader Hassan Nasrallah vowed that his fighters would press on in Syria even as Assad loses his support from the Russian air force.    The conflict in Syria has delivered an influx of new weapons into the region, increasing the chances that dangerous chemical or advanced precision weapons had fallen into Hezbollah's hands.    Already Hezbollah is reportedly in possession of Russian-designed surface-to-air shoulder-mounted missile systems and with an arsenal of well over 100,000 missiles, which are, according to Nasrallah, capable of reaching every corner of Israel, it is troubling to imagine these rockets with precision capabilities or Hezbollah with a stockpile of chemical weapons that could one day be used against Israel.    The U.S. must lead the efforts to interdict Iranian weapons as they make their way to Hezbollah for use in Syria and against Israel. We have tremendous cooperation with Israel in these efforts but the international community under the mandate of U.N. Security Council Resolution 1701, which calls for the de-arming of Hezbollah, must step up these efforts.    The Security Council must do more to ensure that Security Council resolutions are implemented. The U.N. peacekeeping mission in Lebanon does not have the ability to de-arm Hezbollah. There is no enforcement mechanism.    Hezbollah has a stranglehold on Lebanon, the country is paralyzed because Hezbollah essentially functions as a state within a state. The political stalemate has persisted for nearly 2 years with the government unable to select a President.    Moreover, the Lebanese Armed Forces must be the sole security apparatus in the country. I was pleased to see the Security Council reaffirm this last week reiterating their strong support for the territorial integrity, sovereignty and political independence of Lebanon and underscoring the crucial role played by the Lebanese Armed Forces and security forces in extending and sustaining the authority of the state in supporting the country's stability.    As long as Hezbollah remains in Syria, a threat to Lebanon remains. Retaliatory bombings have struck Beirut, the country is buckling under the weight of over 1 million refugees and Hezbollah is desperate to see its lifeline to Iran preserved.    This makes a political solution that removes Bashar al-Assad from power all the more important for regional international security. Without Assad, the Hezbollah-Iran nexus is inherently weakened.    Madam Chairman, it is time for the world to call Hezbollah what it is--a terrorist organization that murders innocent civilians at the behest of Iran.    I hope today will give us new insight into how we can beat Iranian support for Hezbollah and curb the menacing group's activities in the Middle East and around the world, and I yield back.    Thank you.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Levitt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Levitt. Thank you very much, Chairman Ros-Lehtinen and Ranking Member Deutch, members of the committee.    It's a pleasure to be here. I, too, would like to just make a comment about Brussels. I was in Brussels last week meeting with counterterrorism officials including with officials as they were planning the first raid last Tuesday.    But I also had the opportunity while there to talk to them about Hezbollah and there is some silver lining here, because due to Hezbollah's tremendous investment in international organized crime, going up to the highest levels of Hezbollah, we now have an opportunity to work with Europeans, even within the context of a European Union designation of Hezbollah that is partial, just the military and terrorist wings, as if such a distinction exists.    Hezbollah will be the first to tell you it does not, and so maybe this is something we should push on again.    But even where things are, we are seeing tremendous cooperation with them on these cases. The fact is that Hezbollah has branched out and experienced a regional transformation.    We see the designation by the GCC and Arab League and it's because of an increased amount of Hezbollah activity in the region, not just the long history of Hezbollah in the Gulf, and to be clear, for example, just 2 months after the finalization day of JCPOA we had the arrest of Mughassil who was one of the masterminds of the Khobar Towers bombing that you both mentioned.    Hezbollah's transformation has, clearly, taken it to Syria. It has taken it to Iraq in small numbers. But, for example, the Treasury Department designated al-Inmaa Group, a Beirut-based engineering company which has been opening up basically fronts to finance and support Hezbollah activities, a small footprint in Yemen, which is most noticeable for the very high ranking Hezbollah operatives that they have sent there.    When Hezbollah sends a special operations commander like Abu Ali Tabatabai to Yemen, that means that Yemen means something to them, even if they're not sending large numbers of people.    Hezbollah's global criminal networks are on the increase and it's important to note that they rely sometimes on what we call these criminal super facilitators who can move and launder tremendous amounts of money in and out of Europe, in and out of the United States.    It's important to note that the Department of Justice, the U.S. Drug Enforcement Administration, has been targeting a whole host of these actors.    To be clear, we don't actually know what this unit within Hezbollah calls itself. But U.S. law enforcement, for lack of a better term, came up with a name called the Business Affairs Component--the BAC--which to be clear is not operating on behalf of Hezbollah's political wing, for its social welfare wing, but it is specifically under and providing facilitation and finance for the terrorist wing, the Islamic Jihad organization, the external security organization, and was founded, according to the GOA, by Imad Mughniyah himself before he was killed in 2008. That's how far back this organization goes.    In terms of the Western Hemisphere, the BAC has established working relationships according to DOJ with South American drug cartels that supply cocaine to drug markets in both the U.S. and Europe.    The BAC then launders these drugs through well-known black market peso exchange and other vehicles. This has come close to the United States as well. One of the most important arrests we've made was of an individual who we lured to Atlanta, Imam Kubaisi, in October 2015, just 3 weeks after the end of the 60-day congressional review period for JCPOA. She was arrested in Atlanta.    She was arraigned on money laundering conspiracy charges, unlicensed firearms dealing, conspiracy for laundering funds she believed to be drug money and for arranging for the sale of thousands of firearms including military assault rifles, machine guns and sniper rifles to criminal groups in Iran and Lebanon, including Hezbollah. She also was trying to procure airplane parts for Iran.    And meanwhile, as associate of hers, Joseph Asmar, was arrested in Paris--again, underscoring the tremendous law enforcement cooperation we're seeing with key European allies.    According to the Department of Justice, Kubaisi and Asmar explained that they could arrange for places from South America--planes, that is, from South America laden with multi-ton shipments of cocaine to land safely in Africa as a transit point before the drugs were smuggled to the United States and to Europe.    DEA recording of the conversation of these two individuals with a DEA undercover discussing their money laundering network and the services they provided to drug traffickers, terrorist organizations and other criminal groups including places--in places like Lebanon, Iran, France, Belgium, again, Bulgaria, Benin, the DRC, Ghana, Nigeria, Cyprus and, yes, across the United States.    We see Hezbollah not only engaging in facilitation but also operational activity, the latest plot to be thwarted in Cyprus with Hussein Bassam Abdallah, a dual Lebanese-Canadian citizen involved in the stockpiling of over eight tons of ammonia nitrate, and according to intelligence officials that was intended not just for Cyprus but for further operations in Europe.    The fact is that there are activities here in the Western Hemisphere we need to be extremely cognizant of. The most recent plot to be thwarted was in Peru. The individual who was arrested, Mohamad Amadar, had married a dual Peruvian-American citizen who was a resident in Miami.    But perhaps the most--the thing we need to be most concerned about and which perhaps you haven't heard is that the person who was the handler for Mohamad Amadar, who met with him personally in Turkey, was Salman Al-Redda.    Salman Al-Redda has been indicted for his role in the 1994 bombing of the AMIA attacks. He came and went throughout South America in the years followed, never arrested, and he has become one of the absolute top--perhaps the top three or four Islamic jihad organization Hezbollah terrorist wing operatives personally in charge of operations in South America, and those operations continue.    My time is over, but I'd like--if you're interested I'm happy to tell you about some of the other things that Treasury, the State Department and the Department of Justice are doing.    There's good things happening from the United States regarding Hezbollah. But my time is over. I want to thank you for having me once more.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. We'll make sure that we ask you that. Thank you.    Mr. Badran.</t>
   </si>
   <si>
+    <t>Badran</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Badran. Thank you, Madam Chair, and thank you, Ranking Member Deutch and for the members of the committee for allowing me to testify today.    I'm going to just briefly talk about, as Matt has talked about, Hezbollah's global operations. I want to talk specifically more about how that relates to their position in Lebanon and Syria specifically.    On the one hand, the Syrian uprising 5 years ago posed a significant challenge to Iran and Hezbollah by--as you noted, by threatening to sever their bridge to Lebanon and thereby denying Hezbollah their strategic depth as well as their logistical pipeline.    Unfortunately, 5 years on the trend is moving in the opposite direction. Hezbollah and Iran have secured their core interests in Syria, albeit at significant cost.    They have managed to secure contiguity between Lebanon and the regime-controlled areas in western Syria, thereby securing the ability to continue to move weapons from Damascus to Lebanon.    A key partner in this effort has been the Lebanese Armed Forces. In fact, one of the interesting things to note and troubling things to note over the past 5 years has been the growing partnership between Hezbollah and the LAF, which has allowed Hezbollah to protect its domestic flank when it was facing some backlash for its involvement in Syria.    The partnership between Hezbollah and the LAF, however, is not the only point of Hezbollah control and domination of the Lebanese state.    It has placed its members or sympathizers in key government positions which like, for instance, the Lebanese customs office as well as its financial auditor which allows it all this activity that we're hearing about globally to be processed domestically with little oversight or backlash.    In fact, Lebanon has become a critical hub in Hezbollah's criminal activities. Hezbollah has made Lebanon complicit both financially and economically as well as militarily because of all the weapons that it's moving from Syria that it's getting from Iran and is storing the majority of it in civilian areas.    Hezbollah has essentially painted a big target on the back of all of Lebanon and this is, unfortunately, has not been countered by U.S. policy over the last 5 years.    What this threatens to do is to--in addition to all these strategic weapons that are being moved to Lebanon as well as the Hezbollah's entrenchment in Syria and its expansion into the Golan along with the IRGC and the building of new infrastructure on Syrian soil, it creates a situation for Israel that will, I think, accelerate an upcoming future conflict which, as the IDF has been saying to anybody who will listen for the last few years, is going to be far bloodier than anything that we've ever seen on both sides.    You talked about the 4,000 rockets that they launched in the previous war. Now they have the capacity to launch anywhere between 1,000 to 1,500 a day.    So the IDF is very clear that there's going to be a lot of dead civilians both in Israel but also in Lebanon. The problem also has been that Hezbollah has gained operational expertise in Syria, working alongside the Russian military in combined weapons operations and in different urban and rural settings. So it's actually be able to offset its losses with this experience.    All of this creates a situation on the border of Israel in the northern border that now combines the Syrian front as well as the Lebanese front and soon to be not just swimming in Iranian cash but also potentially soon with an Iranian nuclear umbrella. This creates an unacceptable position for Israel.    But it's not only Israel's security that has been challenged by this development. It's also the Arab states and we've seen the Saudis leading the charge in this regard in designating Hezbollah but also in pulling the $3 billion aid that they gave to the Lebanese Armed Forces, citing the fact that the Lebanese Armed Forces have become an ``auxiliary'' of Hezbollah and I think this is an accurate assessment.    And although the--there's a tendency on the part of the administration at least to kind of pressure the Saudis to go back on that decision, I think actually we should stop and take and pause and reassess what exactly U.S. materiel support to the LAF and intelligence sharing--how that can actually go to sustain and help Hezbollah entrench its grip on Lebanon.    In addition, we should not--because of--the nature of Hezbollah's control over Lebanon--think about it in the way that the IRGC is in Iran. It's tentacles are everywhere in the economy and security apparatus.    So when pushing for the implementation of H.R. 2297, I think we should be very, very clear about not being taken hostage by the prospect that this is going to somehow collapse Lebanon's economy or the assistance to the LAF is going to collapse Lebanon's security, we have to also be cognizant of the fact that any nook and cranny and any safe haven that's provided in the Lebanese system ultimately is going to benefit Hezbollah because of its dominant position in the state, both in the security sector as well as in the economic sector.    So I'll stop right here and I'll be happy to flesh this out in the conversation.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, sir.    Dr. Byman.</t>
   </si>
   <si>
+    <t>Byman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byman. Madam Chairman, Ranking Member Deutch, members of the committee, thank you very much for having me here today.    Hezbollah is in a time of transition and this is in large part because of the Syrian civil war. Hezbollah forces have been involved in several of the most important battles in the war and they have proven a vital ally to the Syrian regime due to their skill and their discipline, which are often much greater than those of the Syrian army forces.    Hezbollah has had to expand the overall size of its military wing, and although it was cautious about entering the fray, many Lebanese Shi'a now see it as a defender of their community.    They look at the atrocities that the Islamic State is perpetrating against their co-religionists and believe that a strong Hezbollah is necessary to protect their community.    We see extreme voices within the Lebanese Sunni community including jihadists tied to the Islamic State or al-Nusra, al-Qaeda's affiliate. They see Hezbollah as the leading or top foe they face and they've conducted terrorist attacks on Hezbollah targets in Lebanon and Iranian targets there as well.    Perhaps the biggest negative consequence for Hezbollah though has been the collapse of its regional reputation and the associated prestige it's had in the Arab world.    Almost 10 years ago in 2006, Hassan Nasrallah was one of the most popular men in the Arab world for Hezbollah's military efforts against Israel.    Today, he's widely hated. Hezbollah's involvement in the Syrian civil war has largely made it more cautious about taking on Israel. It's taken close to 1,000 causalities and that's a huge number for a relative small group, and this is putting a strain on the organization.    In addition, the organization's Lebanese constituents have little appetite for yet another confrontation, yet another draining conflict.    This could change, though, for several reasons. One is that if there are setbacks in Lebanon or elsewhere the group would have an incentive to restore its past reputation, and fighting Israel might be one way to do so.    Also, Israel regularly attacks Hezbollah targets in Syria and Lebanon to stop the transfer of advanced weapons, as Tony mentioned, and these strikes have at times killed senior Hezbollah officials and even a senior Iranian official.    This has the potential to escalate though, fortunately, we haven't seen that happen yet. And finally, Hezbollah is loyal to Iran and if there were a collapse in the U.S.-Iran nuclear deal or another source of tension, Hezbollah would be seen as part of the Iranian response.    In my judgement, the close relationship between Hezbollah and Iran is not likely to change with the U.S.-Iran nuclear deal. It is possible that Iran might step up support to Hezbollah, taking advantage of the sanctions relief. But at the same time we must recognize that Iran is diplomatically over stretched.    It's deploying considerable forces in Syria to prop up the Assad regime. It maintains a large and clandestine force in Iraq and it's even established limited ties to the Houthis in Yemen. These are considerable financial commitments.    You couple that at home with the collapse in oil prices and add to that decades of economic mismanagement and this has all come at the same time when ordinary Iranians are expecting an increase in economic prosperity due to the deal.    So those sanctions relief will put more money into Iran's coffers. Iran has many, many demands on these scarce funds and in my judgement the level of support for Hezbollah is not likely to change significantly barring a significant change in the regional situation.    For the United States we face a dilemma. Washington, of course, doesn't want Hezbollah's influence to grow. But at the same time, Hezbollah is one of the most formidable foes of the Islamic State and it is fighting the group effectively in Syria.    A standard recommendation is to build up the Lebanese Armed Forces and to otherwise strengthen the Lebanese state to help it counter Hezbollah and I've argued that for quite some time.    For the most part, though, I think we need to recognize that U.S. efforts to do this have failed. In part, this is linked to some general problems with U.S. training programs. But the bigger problem is that Lebanese leaders don't want to exacerbate tension with Hezbollah right now and as a result they're hesitant to go for any efforts to try to push them in that direction.    Part of this is due to fear but Lebanon's situation right now is quite precarious and the country is, I would say, on edge because of the neighboring unrest in Syria.    The million plus Syrian refugees in Lebanon are a potential destabilizing force and I think U.S. aid for the refugees in Lebanon is vital.    We really don't need another failed state in the Middle East and Lebanon, unfortunately, is a fairly strong candidate to be the next one should things get worse.    And finally, as the United States steps up its intervention in Syria and Iraq, continues its efforts to fight Hezbollah, coordination with Israel is going to be essential.    The two countries work well together on this and we need to redouble cooperation to make the most of everything.    Thank you very much.</t>
   </si>
   <si>
@@ -161,6 +185,12 @@
   </si>
   <si>
     <t>412652</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Brendan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Boyle. Thank you. I just have a few questions. When I was in Israel last August--well, actually, a few years ago and then again last August, folks I talked to including Israeli generals talked--they said not if there's a third Lebanon war but when there's a third Lebanon war, and that really struck me.    So my question was about the rockets because there's been quite a change even since I was there 7 months ago. The Israeli military that was briefing us had used the figure about 85,000 rockets. Then it was revised upwards after that to 100,000 and now I read upwards of 150,000.    So I guess two questions. First, where exactly do things stand now in terms of the amount of rockets and their sophistication. As I recall from 2006, the rockets that they had were not exactly precise.    So that's the number one, and then number two is what is our best intelligence that would be the event to trigger a third Lebanon war?    So I decided to ask all my questions at once and then leave it to each of you to figure it out which ones you'll want to take.</t>
@@ -536,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,1037 +596,1217 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99555.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
   </si>
   <si>
     <t>412652</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Boyle</t>
@@ -566,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,1214 +611,1308 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
